--- a/apifile/led.xlsx
+++ b/apifile/led.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SobiMask\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APITest\apifile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD9D68-892B-480E-B9A8-B93942A51283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1D7ACA-520F-4FC5-89AF-5166AB301417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/led/findItems</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -71,42 +67,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>deviceId=741344626406817792</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查询模板</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/led/size/741344626406817792</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获取宽高</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/led/status/741344626406817792</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获取开关状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>下发节目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存节目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置开关屏</t>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除节目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/led/findItems</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/led/playItems</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/led/saveItems</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/led/setScreen</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/led/deleteItems</t>
+  </si>
+  <si>
+    <t>deviceId=732916718143410176</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/led/size/732916718143410176</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/led/status/732916718143410176</t>
+  </si>
+  <si>
     <t>{
-	"deviceIds": ["741344626406817792"],
+	"deviceIds": ["732916718143410176"],
 	"sign": "1"
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发节目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/led/playItems</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -115,61 +141,23 @@
 	"infoDeviceId": "",
 	"url": "",
 	"templateType": "text",
-	"deviceId": "741344626406817792",
+	"deviceId": "732916718143410176",
 	"number": 4,
 	"time": 5
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存节目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
-  "deviceIds": [741344626406817792
+  "deviceIds": [732916718143410176
   ],
   "sign": true
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置开关屏</t>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/led/setScreen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/led/saveItems</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/led/shot/741344626406817792</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>截图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/led/deleteItems</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceId=741344626406817792&amp;number=1</t>
-  </si>
-  <si>
-    <t>删除节目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/led/shot/732916718143410176</t>
+  </si>
+  <si>
+    <t>deviceId=732916718143410176&amp;number=1</t>
   </si>
 </sst>
 </file>
@@ -544,7 +532,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -584,167 +572,168 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="5">
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="5">
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="5">
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5">
         <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5">
         <v>200</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5">
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5">
         <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D40DBBFC-813C-4527-9ECF-D09FF2D3020F}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{19660DB9-BF0B-4D38-8ECF-8116ADB3AA28}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{D542DCE4-C3D7-4AB8-8A7C-D74215EAA5CC}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{5BC1CA60-2F81-4935-B784-8706F2F9675C}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{7854B250-D505-4E91-A34A-9B2915BC13B2}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{63D93B39-8EB4-4F4E-B3D9-1FEC8A492C68}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{56B4E03A-4AD8-44AE-800E-390973FC9409}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{877603F1-DAE4-42F8-9419-025D5898981D}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://island.dev.iot-cas.com:8081/island/led/findItems" xr:uid="{D40DBBFC-813C-4527-9ECF-D09FF2D3020F}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://island.dev.iot-cas.com:8081/island/led/size/741344626406817792" xr:uid="{19660DB9-BF0B-4D38-8ECF-8116ADB3AA28}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://island.dev.iot-cas.com:8081/island/led/status/741344626406817792" xr:uid="{D542DCE4-C3D7-4AB8-8A7C-D74215EAA5CC}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://island.dev.iot-cas.com:8081/island/led/playItems" xr:uid="{5BC1CA60-2F81-4935-B784-8706F2F9675C}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://island.dev.iot-cas.com:8081/island/led/saveItems" xr:uid="{7854B250-D505-4E91-A34A-9B2915BC13B2}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://island.dev.iot-cas.com:8081/island/led/setScreen" xr:uid="{63D93B39-8EB4-4F4E-B3D9-1FEC8A492C68}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://island.dev.iot-cas.com:8081/island/led/shot/741344626406817792" xr:uid="{56B4E03A-4AD8-44AE-800E-390973FC9409}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://island.dev.iot-cas.com:8081/island/led/deleteItems" xr:uid="{877603F1-DAE4-42F8-9419-025D5898981D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>